--- a/src/main/resources/data/ExerciseList.xlsx
+++ b/src/main/resources/data/ExerciseList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36981D86-479A-674F-902C-20F1DA97AFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECF76D1-8050-B04A-AC99-7766EDC80842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,7 +461,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/ExerciseList.xlsx
+++ b/src/main/resources/data/ExerciseList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanchoi/IdeaProjects/SC2002 FCSD Group 2 HDB BTO/src/main/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECF76D1-8050-B04A-AC99-7766EDC80842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BECF76D1-8050-B04A-AC99-7766EDC80842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B17A84-3C2E-4E3E-805C-F50652404116}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,32 +391,32 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -428,12 +428,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>122</v>
@@ -447,12 +447,12 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>555</v>
@@ -464,12 +464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>

--- a/src/main/resources/data/ExerciseList.xlsx
+++ b/src/main/resources/data/ExerciseList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2179e81e572d34a2/Documents/GitHub/sc2002_hdb_fcsd_group2/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{BECF76D1-8050-B04A-AC99-7766EDC80842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B17A84-3C2E-4E3E-805C-F50652404116}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BECF76D1-8050-B04A-AC99-7766EDC80842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93BF39BE-BA35-4EFD-91DE-31110D02C314}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1560" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28335" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,12 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,6 +124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,7 +396,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +437,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2">
@@ -451,7 +456,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3">
@@ -468,7 +473,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4">
